--- a/biology/Microbiologie/Budvicia/Budvicia.xlsx
+++ b/biology/Microbiologie/Budvicia/Budvicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Budvicia est un genre de bacilles Gram négatifs de la famille des Budviciaceae dont il est le genre type. Son nom provient de Budvicium, nom latin de České Budějovice, ville tchèque où l'espèce type a été isolée pour la première fois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Budvicia est un genre de bacilles Gram négatifs de la famille des Budviciaceae dont il est le genre type. Son nom provient de Budvicium, nom latin de České Budějovice, ville tchèque où l'espèce type a été isolée pour la première fois.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Budviciaceae nouvellement créée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Budviciaceae nouvellement créée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (29 octobre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (29 octobre 2022) :
 Budvicia aquatica Bouvet et al. 1985 – espèce type
 Budvicia diplopodorum Lang et al. 2013</t>
         </is>
